--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Vcan-Egfr.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H2">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J2">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N2">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P2">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q2">
-        <v>1.99958694364</v>
+        <v>0.1013854288673333</v>
       </c>
       <c r="R2">
-        <v>17.99628249276</v>
+        <v>0.912468859806</v>
       </c>
       <c r="S2">
-        <v>0.0001652045535174182</v>
+        <v>9.269258546200336E-06</v>
       </c>
       <c r="T2">
-        <v>0.0001652045535174182</v>
+        <v>9.269258546200336E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H3">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J3">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N3">
         <v>240.678711</v>
       </c>
       <c r="O3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P3">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q3">
-        <v>122.728573064097</v>
+        <v>18.971205231706</v>
       </c>
       <c r="R3">
-        <v>1104.557157576873</v>
+        <v>170.740847085354</v>
       </c>
       <c r="S3">
-        <v>0.01013975370331999</v>
+        <v>0.00173446034790479</v>
       </c>
       <c r="T3">
-        <v>0.01013975370331999</v>
+        <v>0.00173446034790479</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.529781</v>
+        <v>0.2364713333333333</v>
       </c>
       <c r="H4">
-        <v>4.589343</v>
+        <v>0.709414</v>
       </c>
       <c r="I4">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="J4">
-        <v>0.01315047351877542</v>
+        <v>0.002249544876489787</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N4">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P4">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q4">
-        <v>34.441273224952</v>
+        <v>5.532513504173556</v>
       </c>
       <c r="R4">
-        <v>309.971459024568</v>
+        <v>49.792621537562</v>
       </c>
       <c r="S4">
-        <v>0.002845515261938014</v>
+        <v>0.0005058152700387974</v>
       </c>
       <c r="T4">
-        <v>0.002845515261938014</v>
+        <v>0.0005058152700387974</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>311.028648</v>
       </c>
       <c r="I5">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J5">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N5">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P5">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q5">
-        <v>135.5158731083733</v>
+        <v>44.450451876488</v>
       </c>
       <c r="R5">
-        <v>1219.64285797536</v>
+        <v>400.054066888392</v>
       </c>
       <c r="S5">
-        <v>0.01119623199311236</v>
+        <v>0.004063924525858152</v>
       </c>
       <c r="T5">
-        <v>0.01119623199311236</v>
+        <v>0.004063924525858152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>311.028648</v>
       </c>
       <c r="I6">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J6">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N6">
         <v>240.678711</v>
       </c>
       <c r="O6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P6">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q6">
-        <v>8317.552676079193</v>
+        <v>8317.552676079191</v>
       </c>
       <c r="R6">
-        <v>74857.97408471273</v>
+        <v>74857.97408471271</v>
       </c>
       <c r="S6">
-        <v>0.6871907123517701</v>
+        <v>0.7604401055215099</v>
       </c>
       <c r="T6">
-        <v>0.6871907123517701</v>
+        <v>0.7604401055215099</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>311.028648</v>
       </c>
       <c r="I7">
-        <v>0.8912330150752564</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="J7">
-        <v>0.8912330150752563</v>
+        <v>0.9862688099613843</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N7">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P7">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q7">
-        <v>2334.151674118805</v>
+        <v>2425.62198553291</v>
       </c>
       <c r="R7">
-        <v>21007.36506706925</v>
+        <v>21830.59786979618</v>
       </c>
       <c r="S7">
-        <v>0.1928460707303739</v>
+        <v>0.2217647799140164</v>
       </c>
       <c r="T7">
-        <v>0.1928460707303739</v>
+        <v>0.2217647799140164</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H8">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I8">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J8">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.307106666666667</v>
+        <v>0.428743</v>
       </c>
       <c r="N8">
-        <v>3.92132</v>
+        <v>1.286229</v>
       </c>
       <c r="O8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="P8">
-        <v>0.01256263154946851</v>
+        <v>0.00412050394863168</v>
       </c>
       <c r="Q8">
-        <v>14.53890824013333</v>
+        <v>0.5174697917923334</v>
       </c>
       <c r="R8">
-        <v>130.8501741612</v>
+        <v>4.657228126131001</v>
       </c>
       <c r="S8">
-        <v>0.001201195002838732</v>
+        <v>4.731016422732773E-05</v>
       </c>
       <c r="T8">
-        <v>0.001201195002838732</v>
+        <v>4.731016422732773E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H9">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I9">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J9">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.22623700000001</v>
+        <v>80.22623699999998</v>
       </c>
       <c r="N9">
         <v>240.678711</v>
       </c>
       <c r="O9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="P9">
-        <v>0.77105616682495</v>
+        <v>0.7710272268990069</v>
       </c>
       <c r="Q9">
-        <v>892.3540273638902</v>
+        <v>96.82876258428099</v>
       </c>
       <c r="R9">
-        <v>8031.18624627501</v>
+        <v>871.4588632585289</v>
       </c>
       <c r="S9">
-        <v>0.07372570076985997</v>
+        <v>0.008852661029592356</v>
       </c>
       <c r="T9">
-        <v>0.07372570076985997</v>
+        <v>0.008852661029592358</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.12297</v>
+        <v>1.206946333333333</v>
       </c>
       <c r="H10">
-        <v>33.36891</v>
+        <v>3.620839</v>
       </c>
       <c r="I10">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="J10">
-        <v>0.09561651140596822</v>
+        <v>0.01148164516212593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.51385866666667</v>
+        <v>23.39612766666667</v>
       </c>
       <c r="N10">
-        <v>67.54157600000001</v>
+        <v>70.188383</v>
       </c>
       <c r="O10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="P10">
-        <v>0.2163812016255814</v>
+        <v>0.2248522691523614</v>
       </c>
       <c r="Q10">
-        <v>250.4209745335733</v>
+        <v>28.23787050148189</v>
       </c>
       <c r="R10">
-        <v>2253.78877080216</v>
+        <v>254.140834513337</v>
       </c>
       <c r="S10">
-        <v>0.02068961563326951</v>
+        <v>0.002581673968306248</v>
       </c>
       <c r="T10">
-        <v>0.02068961563326952</v>
+        <v>0.002581673968306249</v>
       </c>
     </row>
   </sheetData>
